--- a/src/main/java/com/qa/FraudShare/testdata/FraudShare_TestData.xlsx
+++ b/src/main/java/com/qa/FraudShare/testdata/FraudShare_TestData.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rperabat\Desktop\TCS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="5865" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="IncidentSubmission" sheetId="1" r:id="rId1"/>
     <sheet name="ExportIncidents" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:Q22"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,70 +25,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
-  <si>
-    <t>Product Line</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t xml:space="preserve">Group/Individual Product
 </t>
   </si>
   <si>
-    <t>Annuity</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
-    <t>Disbursement</t>
+    <t>Disbursement Method</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>Access Method</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Detection Method</t>
+  </si>
+  <si>
+    <t>Fraud Scheme</t>
+  </si>
+  <si>
+    <t>Account Value</t>
+  </si>
+  <si>
+    <t>Amount Requested</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Address Change</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Phishing</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>10/19/218</t>
+  </si>
+  <si>
+    <t>10/12/218</t>
   </si>
   <si>
     <t>Access Point</t>
   </si>
   <si>
-    <t>Access Method</t>
-  </si>
-  <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
-    <t>EFT</t>
-  </si>
-  <si>
     <t>IVR</t>
   </si>
   <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>Detection Method</t>
-  </si>
-  <si>
-    <t>Advisor</t>
-  </si>
-  <si>
-    <t>Address Change</t>
-  </si>
-  <si>
-    <t>Fraud Scheme</t>
-  </si>
-  <si>
-    <t>Phishing</t>
-  </si>
-  <si>
-    <t>Account Value</t>
-  </si>
-  <si>
-    <t>Amount Requested</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Individual</t>
   </si>
   <si>
-    <t>Wire</t>
+    <t>Check</t>
   </si>
   <si>
     <t>Phone</t>
@@ -99,16 +106,40 @@
     <t>Mail Drop</t>
   </si>
   <si>
-    <t>FromDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>10/12/218</t>
-  </si>
-  <si>
-    <t>10/19/218</t>
+    <t>Product Line</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Mutual Fund</t>
+  </si>
+  <si>
+    <t>Account Accessed</t>
+  </si>
+  <si>
+    <t>WasAccountAccessedNo</t>
+  </si>
+  <si>
+    <t>WasAccountAccessedYes</t>
+  </si>
+  <si>
+    <t>DateOfIncident</t>
+  </si>
+  <si>
+    <t>DateOfDetection</t>
+  </si>
+  <si>
+    <t>12/12/2019</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>07/24/2019</t>
+  </si>
+  <si>
+    <t>01/02/2020</t>
   </si>
 </sst>
 </file>
@@ -176,15 +207,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,121 +499,152 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2">
+      <c r="K2">
         <v>200</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>400</v>
       </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3">
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3">
         <v>150</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>244</v>
       </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -591,38 +655,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>41529</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>43720</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/qa/FraudShare/testdata/FraudShare_TestData.xlsx
+++ b/src/main/java/com/qa/FraudShare/testdata/FraudShare_TestData.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IncidentSubmission" sheetId="1" r:id="rId1"/>
     <sheet name="ExportIncidents" sheetId="2" r:id="rId2"/>
+    <sheet name="ExportThreat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t xml:space="preserve">Group/Individual Product
 </t>
@@ -76,70 +77,103 @@
     <t>EndDate</t>
   </si>
   <si>
+    <t>Access Point</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>PIN Change</t>
+  </si>
+  <si>
+    <t>FraudShare</t>
+  </si>
+  <si>
+    <t>Mail Drop</t>
+  </si>
+  <si>
+    <t>Product Line</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Mutual Fund</t>
+  </si>
+  <si>
+    <t>Account Accessed</t>
+  </si>
+  <si>
+    <t>WasAccountAccessedNo</t>
+  </si>
+  <si>
+    <t>WasAccountAccessedYes</t>
+  </si>
+  <si>
+    <t>DateOfIncident</t>
+  </si>
+  <si>
+    <t>DateOfDetection</t>
+  </si>
+  <si>
+    <t>12/12/2019</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>07/24/2019</t>
+  </si>
+  <si>
+    <t>01/02/2020</t>
+  </si>
+  <si>
+    <t>HAS\FSA</t>
+  </si>
+  <si>
+    <t>EFT</t>
+  </si>
+  <si>
+    <t>IT Help Desk</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Online Registration</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>10/19/218</t>
   </si>
   <si>
-    <t>10/12/218</t>
-  </si>
-  <si>
-    <t>Access Point</t>
-  </si>
-  <si>
-    <t>IVR</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>PIN Change</t>
-  </si>
-  <si>
-    <t>FraudShare</t>
-  </si>
-  <si>
-    <t>Mail Drop</t>
-  </si>
-  <si>
-    <t>Product Line</t>
-  </si>
-  <si>
-    <t>Investment</t>
-  </si>
-  <si>
-    <t>Mutual Fund</t>
-  </si>
-  <si>
-    <t>Account Accessed</t>
-  </si>
-  <si>
-    <t>WasAccountAccessedNo</t>
-  </si>
-  <si>
-    <t>WasAccountAccessedYes</t>
-  </si>
-  <si>
-    <t>DateOfIncident</t>
-  </si>
-  <si>
-    <t>DateOfDetection</t>
-  </si>
-  <si>
-    <t>12/12/2019</t>
-  </si>
-  <si>
-    <t>03/12/2018</t>
-  </si>
-  <si>
-    <t>07/24/2019</t>
-  </si>
-  <si>
-    <t>01/02/2020</t>
+    <t>10/12/220</t>
+  </si>
+  <si>
+    <t>ThreatIndicators</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>12/02/2018</t>
+  </si>
+  <si>
+    <t>Fax Number, Bank Account</t>
   </si>
 </sst>
 </file>
@@ -499,10 +533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +546,8 @@
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="8" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
@@ -523,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -532,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -541,10 +576,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -559,12 +594,12 @@
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -573,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -582,10 +617,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -600,40 +635,40 @@
         <v>400</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
       </c>
       <c r="K3">
         <v>150</v>
@@ -642,7 +677,48 @@
         <v>244</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
+        <v>45</v>
+      </c>
+      <c r="L4">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +732,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,11 +758,52 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43736</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/qa/FraudShare/testdata/FraudShare_TestData.xlsx
+++ b/src/main/java/com/qa/FraudShare/testdata/FraudShare_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="IncidentSubmission" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t xml:space="preserve">Group/Individual Product
 </t>
@@ -128,33 +128,9 @@
     <t>03/12/2018</t>
   </si>
   <si>
-    <t>07/24/2019</t>
-  </si>
-  <si>
     <t>01/02/2020</t>
   </si>
   <si>
-    <t>HAS\FSA</t>
-  </si>
-  <si>
-    <t>EFT</t>
-  </si>
-  <si>
-    <t>IT Help Desk</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Online Registration</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>10/19/218</t>
   </si>
   <si>
@@ -167,13 +143,16 @@
     <t>all</t>
   </si>
   <si>
-    <t>12/12/2017</t>
-  </si>
-  <si>
-    <t>12/02/2018</t>
-  </si>
-  <si>
-    <t>Fax Number, Bank Account</t>
+    <t>Fax Number</t>
+  </si>
+  <si>
+    <t>07/12/2019</t>
+  </si>
+  <si>
+    <t>06/02/2020</t>
+  </si>
+  <si>
+    <t>07/22/2019</t>
   </si>
 </sst>
 </file>
@@ -535,8 +514,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -659,10 +638,10 @@
         <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -682,40 +661,40 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="L4">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="M4" t="s">
         <v>27</v>
@@ -759,10 +738,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -774,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,7 +782,7 @@
         <v>44102</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/qa/FraudShare/testdata/FraudShare_TestData.xlsx
+++ b/src/main/java/com/qa/FraudShare/testdata/FraudShare_TestData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rperabat\Desktop\TCS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IncidentSubmission" sheetId="1" r:id="rId1"/>
     <sheet name="ExportIncidents" sheetId="2" r:id="rId2"/>
     <sheet name="ExportThreat" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:S22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -514,7 +510,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -710,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -753,13 +749,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
